--- a/compared/comparison.xlsx
+++ b/compared/comparison.xlsx
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.15813225</v>
+        <v>6.962025316455696</v>
       </c>
       <c r="C7" t="n">
-        <v>55.81817545</v>
+        <v>10.54852320675105</v>
       </c>
       <c r="D7" t="n">
-        <v>27.26886918</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="E7" t="n">
-        <v>72.63894282</v>
+        <v>14.34599156118143</v>
       </c>
       <c r="F7" t="n">
-        <v>14.5963982</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="G7" t="n">
-        <v>76.08821296000001</v>
+        <v>16.45569620253164</v>
       </c>
       <c r="H7" t="n">
-        <v>22.36364315</v>
+        <v>5.274261603375527</v>
       </c>
       <c r="I7" t="n">
-        <v>75.33253492999999</v>
+        <v>13.08016877637131</v>
       </c>
       <c r="J7" t="n">
-        <v>3.93168493</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>27.0042194092827</v>
       </c>
     </row>
   </sheetData>

--- a/compared/comparison.xlsx
+++ b/compared/comparison.xlsx
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.962025316455696</v>
+        <v>23.93998628</v>
       </c>
       <c r="C7" t="n">
-        <v>10.54852320675105</v>
+        <v>55.66301726</v>
       </c>
       <c r="D7" t="n">
-        <v>3.79746835443038</v>
+        <v>32.91118477</v>
       </c>
       <c r="E7" t="n">
-        <v>14.34599156118143</v>
+        <v>62.76294145</v>
       </c>
       <c r="F7" t="n">
-        <v>2.531645569620253</v>
+        <v>15.94435333</v>
       </c>
       <c r="G7" t="n">
-        <v>16.45569620253164</v>
+        <v>71.88584774</v>
       </c>
       <c r="H7" t="n">
-        <v>5.274261603375527</v>
+        <v>22.50826433</v>
       </c>
       <c r="I7" t="n">
-        <v>13.08016877637131</v>
+        <v>76.41943222</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.379046379</v>
       </c>
       <c r="K7" t="n">
-        <v>27.0042194092827</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/compared/comparison.xlsx
+++ b/compared/comparison.xlsx
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.93998628</v>
+        <v>0.2545382323733863</v>
       </c>
       <c r="C7" t="n">
-        <v>55.66301726</v>
+        <v>0.5307249255213505</v>
       </c>
       <c r="D7" t="n">
-        <v>32.91118477</v>
+        <v>0.3487189672293942</v>
       </c>
       <c r="E7" t="n">
-        <v>62.76294145</v>
+        <v>0.6301092353525323</v>
       </c>
       <c r="F7" t="n">
-        <v>15.94435333</v>
+        <v>0.1185302879841112</v>
       </c>
       <c r="G7" t="n">
-        <v>71.88584774</v>
+        <v>0.7750943396226415</v>
       </c>
       <c r="H7" t="n">
-        <v>22.50826433</v>
+        <v>0.184746772591857</v>
       </c>
       <c r="I7" t="n">
-        <v>76.41943222</v>
+        <v>0.8031380337636544</v>
       </c>
       <c r="J7" t="n">
-        <v>5.379046379</v>
+        <v>0.05060575968222443</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
